--- a/Список таблиц.xlsx
+++ b/Список таблиц.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergejkocemirov/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergejkocemirov/stat_forms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41F2949-C893-274F-808F-843398F4CD01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6052D743-B206-404E-AF7A-9FB53FEBBC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16860" xr2:uid="{811D6C1F-EEEB-0C4A-A1D0-1D9B71DC51B2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16860" activeTab="1" xr2:uid="{811D6C1F-EEEB-0C4A-A1D0-1D9B71DC51B2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="21-24" sheetId="1" r:id="rId1"/>
+    <sheet name="16-20" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="67">
   <si>
     <t>2020-2024</t>
   </si>
@@ -148,6 +149,93 @@
   </si>
   <si>
     <t>3.5. Распределение персонала без внешних совместителей и работающих по договорам гражданско-правового характера по возрасту  и полу</t>
+  </si>
+  <si>
+    <t>1.2.  Деятельность  организации</t>
+  </si>
+  <si>
+    <t>1.4. Сведения об учебно-консультационных пунктах общеобразовательной организации</t>
+  </si>
+  <si>
+    <t>2. Численность и состав обучающихся (заполняется отдельно по классам очного, очно-заочного и заочного обучения; в случае, если экстерны не включены в списки классов, а состоят только в списках организации – отдельно и по аттестации экстернов)</t>
+  </si>
+  <si>
+    <t>2.1.2.1. Число классов для обучающихся с ограниченными возможностями здоровья, кроме классов для обучающихся с умственной отсталостью (интеллектуальными нарушениями), и численность обучающихся в них (по классам очного обучения)</t>
+  </si>
+  <si>
+    <t>2.1.1.1. Число всех классов, кроме классов для обучающихся с ограниченными возможностями здоровья, и численность обучающихся в них (по классам очного обучения)</t>
+  </si>
+  <si>
+    <t>2.1.3.1. Число классов для обучающихся с умственной отсталостью (интеллектуальными нарушениями) и численность обучающихся в них (по классам очного обучения)</t>
+  </si>
+  <si>
+    <t>2.2.1. Классы, имеющие в своем составе лиц с ограниченными возможностями здоровья, находящихся на совместном обучении</t>
+  </si>
+  <si>
+    <t>2.4.1. Сведения о классах, классах-комплектах</t>
+  </si>
+  <si>
+    <t>2.3.1. Численность обучающихся с использованием сетевой формы реализации образовательных программ, с применением электронного обучения и дистанционных образовательных технологий. Обучение по индивидуальным учебным планам, на дому и в медицинской организации</t>
+  </si>
+  <si>
+    <t>2.5.1.1. Сведения об обучающихся, окончивших все классы, кроме классов для обучающихся с ограниченными возможностями здоровья, и переведенных в следующий класс или окончивших выпускной класс (по классам очного обучения)</t>
+  </si>
+  <si>
+    <t>2.5.2.1. Сведения об обучающихся, окончивших классы для обучающихся с ограниченными возможностями здоровья, кроме классов для обучающихся с умственной отсталостью (интеллектуальными нарушениями), и переведенных в следующий класс или окончивших выпускной класс</t>
+  </si>
+  <si>
+    <t>2.5.3.1. Сведения об обучающихся, окончивших классы для обучающихся с умственной отсталостью (интеллектуальными нарушениями), и переведенных в следующий класс или окончивших выпускной класс</t>
+  </si>
+  <si>
+    <t>2.6.1. Выпуск и итоги государственной итоговой аттестации (ГИА)</t>
+  </si>
+  <si>
+    <t>2.7.1. Численность обучающихся по источникам финансирования их обучения</t>
+  </si>
+  <si>
+    <t>2.8.1. Выбытие обучающихся.</t>
+  </si>
+  <si>
+    <t>2.9. Сведения о сменности занятий и группах продленного дня</t>
+  </si>
+  <si>
+    <t>2.10.1. Сведения о преподавании иностранных языков</t>
+  </si>
+  <si>
+    <t>2.11.1. Углубленное изучение предметов</t>
+  </si>
+  <si>
+    <t>2.12.1. Профильное обучение</t>
+  </si>
+  <si>
+    <t>2.13.1. Численность обученных (включая выпускников и выбывших по различным причинам) по программам профессионального обучения в пределах освоения образовательных программ среднего общего образования, по профессиям</t>
+  </si>
+  <si>
+    <t>2.14. Распределение обучающихся по полу и возрасту</t>
+  </si>
+  <si>
+    <t>2.14.1.1. Распределение обучающихся всех классов, кроме классов для обучающихся с ограниченными возможностями здоровья, по полу и возрасту</t>
+  </si>
+  <si>
+    <t>2.14.2.1. Распределение обучающихся классов для обучающихся с ограниченными возможностями здоровья по полу и возрасту</t>
+  </si>
+  <si>
+    <t>2.5.1.4. Сведения об обучающихся, окончивших все классы, кроме классов для обучающихся с ограниченными возможностями здоровья, и переведенных в следующий класс или окончивших выпускной класс (по аттестации экстернов)</t>
+  </si>
+  <si>
+    <t>2.14.3.1. Распределение экстернов, получивших аттестат об основном общем образовании, аттестат о среднем общем образовании или свидетельство об обучении, по возрасту (по классам очного обучения)</t>
+  </si>
+  <si>
+    <t>2.14.3.4. Распределение экстернов, получивших аттестат об основном общем образовании, аттестат о среднем общем образовании или свидетельство об обучении, по возрасту (по аттестации экстернов)</t>
+  </si>
+  <si>
+    <t>2.15.1. Язык обучения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1. Распределение численности персонала по уровню образования и полу </t>
+  </si>
+  <si>
+    <t>3.2. Распределение персонала по стажу работы</t>
   </si>
 </sst>
 </file>
@@ -510,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEE01D3C-1F92-B644-9D25-810086964B2F}">
   <dimension ref="B2:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -805,4 +893,342 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643CF2F1-FE10-8842-BE28-BAC988FDAAB5}">
+  <dimension ref="A1:B40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="36.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>